--- a/테스트_셀 테두리 변경.xlsx
+++ b/테스트_셀 테두리 변경.xlsx
@@ -454,7 +454,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
   </cols>
